--- a/PPA2/Input_Template/XLSX/PPA_Template_Freeway.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_Freeway.xlsx
@@ -5,25 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484F486-EFC6-4536-85A1-E7E9BBBB3FF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BCC80-C2EC-431B-B79E-B6B25BA4B4FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="0_0TitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="0_1UsingThisReport" sheetId="12" r:id="rId4"/>
+    <sheet name="0ATitlePg" sheetId="4" r:id="rId3"/>
+    <sheet name="0BUsingThisReport" sheetId="13" r:id="rId4"/>
     <sheet name="1ReduceVMT" sheetId="2" r:id="rId5"/>
     <sheet name="2ReduceCongestion" sheetId="3" r:id="rId6"/>
     <sheet name="3Multimodal" sheetId="6" r:id="rId7"/>
     <sheet name="4EconProsperity" sheetId="7" r:id="rId8"/>
     <sheet name="5Freight" sheetId="8" r:id="rId9"/>
     <sheet name="6Safety" sheetId="9" r:id="rId10"/>
-    <sheet name="7SGR" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="7SGR" sheetId="10" r:id="rId11"/>
     <sheet name="8SocioEconEquity" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="292">
   <si>
     <t>data_item</t>
   </si>
@@ -752,9 +752,6 @@
     <t>Improve Freight Movement</t>
   </si>
   <si>
-    <t>*STAA = Surface Transportation Assistance Act. Under this act, designated STAA truck routes must meet federal design guidelines to safely accommodate large trucks.</t>
-  </si>
-  <si>
     <t>Make a safer transportation system</t>
   </si>
   <si>
@@ -782,12 +779,6 @@
     <t>Maintain a state of good repair</t>
   </si>
   <si>
-    <t>State of good repair indicator 1: PCI</t>
-  </si>
-  <si>
-    <t>State of good repair indicator 2: AADT</t>
-  </si>
-  <si>
     <t>Promote Socioeconomic Equity</t>
   </si>
   <si>
@@ -842,8 +833,80 @@
     <t>Project length with NPMRDS overlap</t>
   </si>
   <si>
+    <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
+  </si>
+  <si>
+    <t>PDF report generated:</t>
+  </si>
+  <si>
+    <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 2: Share of population living in EJ community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
+  </si>
+  <si>
+    <t>anyplace</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>Congestion indicator 1: Traffic congestion severity on project segment</t>
+  </si>
+  <si>
+    <t>Congestion Ratio</t>
+  </si>
+  <si>
+    <t>Congestion indicator 3: Total change in jobs plus dwelling units within 0.5mi of project :</t>
+  </si>
+  <si>
+    <t>The Promote Economic Prosperity performance outcome includes three suboutcomes: job access, school access, and supporting the agricultural economy. Each of these suboutcomes has its own set of performance indicators. In your application you can choose which of these suboutcomes you want to be evaluated on. You can choose to be evaluated on one, two, or all three .</t>
+  </si>
+  <si>
+    <t>Congested speed / Free-flow speed</t>
+  </si>
+  <si>
+    <t>Congestion indicator 2: Travel time reliability* on project segment</t>
+  </si>
+  <si>
+    <t>Using This Report</t>
+  </si>
+  <si>
+    <t>VMT Indicator 2: Average Weekday Vehicle Occupancy on Project Segment</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 1: Total jobs within 30-min car trip</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 2: Education facilities (K-12 schools and higher-education) ccessible within 30-minute car trip</t>
+  </si>
+  <si>
+    <t>Freight Performance Indicator 2: Share of traffic on segment that is trucks</t>
+  </si>
+  <si>
+    <t>Safety Indicator 3: Share of collisions that are fatal on project segment</t>
+  </si>
+  <si>
+    <t>CURRENTLY A PLACEHOLDER ONLY</t>
+  </si>
+  <si>
+    <t>Average weekday transit person trips</t>
+  </si>
+  <si>
+    <t>Multi-modal indicator 1: Daily Transit Person-Trips on Project Segment*</t>
+  </si>
+  <si>
+    <t>*NOTE: transit trips are estimated by SACOG's SACSIM19 travel demand model</t>
+  </si>
+  <si>
     <r>
-      <t>*Free-flow speed refers to the 85</t>
+      <t>*For freeways, free-flow speed refers to the 85</t>
     </r>
     <r>
       <rPr>
@@ -864,93 +927,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> percentile speed between the hours of 8pm-6am. It is supposed to represent the speed when there is no traffic congestion.
+      <t xml:space="preserve"> percentile speed between the hours of 8pm-6am. It is supposed to represent the speed when there is no traffic congestion. 
 Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
     </r>
   </si>
   <si>
-    <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
-  </si>
-  <si>
-    <t>PDF report generated:</t>
-  </si>
-  <si>
-    <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
-  </si>
-  <si>
-    <t>Equity Indicator 2: Share of population living in EJ community</t>
-  </si>
-  <si>
-    <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
-  </si>
-  <si>
-    <t>anyplace</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t>Congestion indicator 1: Traffic congestion severity on project segment</t>
-  </si>
-  <si>
-    <t>Congestion Ratio</t>
-  </si>
-  <si>
-    <t>Congestion indicator 3: Total change in jobs plus dwelling units within 0.5mi of project :</t>
-  </si>
-  <si>
-    <t>The Promote Economic Prosperity performance outcome includes three suboutcomes: job access, school access, and supporting the agricultural economy. Each of these suboutcomes has its own set of performance indicators. In your application you can choose which of these suboutcomes you want to be evaluated on. You can choose to be evaluated on one, two, or all three .</t>
-  </si>
-  <si>
-    <t>Congested speed / Free-flow speed</t>
-  </si>
-  <si>
-    <t>Congestion indicator 2: Travel time reliability* on project segment</t>
-  </si>
-  <si>
-    <t>Using This Report</t>
-  </si>
-  <si>
-    <t>When we get to final layout, I think we should think about including a text box somewhere up front. On the title page maybe if we have the space. Which explains, like you said in documentation outline, what the tool is and what it is not. I.e., that the 2016 is base year without the project, while the 2040 is what the MTP envisions for the project corridor. That the reviewer then needs to make the step of thinking does the project help the corridor move towards this vision?   I noticed that the 2018 funding round Community Design reviewers thought the 2040 was a Project/No Project change. We need to emphasize that the 2040 indicators are about plan consistency, not about project/no-project benefits, especially as Community Design-type projects are generally lump sum in our plan. No need to tackle now, but put some thought into this and let’s talk about where best to try to emphasize this. Maybe it is laid out in the documentation and it is overkill to also include here.</t>
-  </si>
-  <si>
-    <t>VMT Indicator 1: Average Weekday Transit Vehicle Miles on Project Segment</t>
-  </si>
-  <si>
-    <t>VMT Indicator 2: Average Weekday Vehicle Occupancy on Project Segment</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 1: Total jobs within 30-min car trip</t>
-  </si>
-  <si>
-    <t>NEED MAP</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 2: Education facilities (K-12 schools and higher-education) ccessible within 30-minute car trip</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 2: Share of traffic on segment that is trucks</t>
-  </si>
-  <si>
-    <t>Safety Indicator 3: Share of collisions that are fatal on project segment</t>
-  </si>
-  <si>
-    <t>CURRENTLY A PLACEHOLDER ONLY</t>
-  </si>
-  <si>
-    <t>TBD - may need to omit</t>
-  </si>
-  <si>
-    <t>Average weekday transit person trips</t>
-  </si>
-  <si>
-    <t>Multi-modal indicator 1: Daily Transit Person-Trips on Project Segment*</t>
-  </si>
-  <si>
-    <t>*NOTE: transit trips are estimated by SACOG's SACSIM19 travel demand model</t>
+    <t>What this report does</t>
+  </si>
+  <si>
+    <t>This report provides base year data on observed 2016 data and, where not observable, on base-year modeled conditions. It is meant to provide rich, quantitative contextual information about each project to aid reviewers in deciding which projects most align with program goals.
+For example, if a project sponsor states that a project's goal is to reduce congestion, the report provides data on how congested the project corridor is under current conditions, and also shows expected job and housing growth in the corridor. Such data, along with any supplemental application narrative provided by the sponsor, are provided to help reviewers decide if the project has potential to be an effective congestion reduction tool.</t>
+  </si>
+  <si>
+    <t>What this report does NOT do</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This report does not in any way model the effects that the proposed project would have if it were built. Any future-year data shown is based on SACOG's travel demand model and MTP-SCS land use forecast and does not necessarily factor in the effects of the proposed project. 
+Future-year data are included to show how well the project aligns with the MTP's vision of the project area, but not to show the effects that the project itself will have on the project area. For example, the future-year population and job growth around a road capacity project answers the question "how many people is this road expected to serve in the future?", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "how much growth will this road project cause?".
+Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue (e.g., it won't say whether widening a congested segment will reduce congestion on the segment, nor will it say whether a proposed safety project will address the root cause of the safety issue).</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;insert job accessibility map&gt;</t>
+  </si>
+  <si>
+    <t>&lt;insert higher ed facility accessibility map&gt;</t>
+  </si>
+  <si>
+    <t>*STAA = Surface Transportation Assistance Act. Under this act, designated STAA truck routes must meet federal design guidelines to safely accommodate large trucks.
+All grade-separated freeways within the SACOG region are designated STAA truck routes</t>
+  </si>
+  <si>
+    <t>Due to receiving funding through Caltrans's SHOPP program, freeway projects are not evaluated for Funding Round money based on maintenance need. Therefore, state-of-good-repair metrics are omitted from the Project Performance Assessment report for freeway projects.</t>
+  </si>
+  <si>
+    <t>VMT Indicator 1: Average Weekday Transit Passenger Trips on Project Segment</t>
   </si>
 </sst>
 </file>
@@ -964,7 +997,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,6 +1220,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1677,7 +1717,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1838,38 +1878,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1883,8 +1893,50 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2494,6 +2546,381 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Share</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Collisions that are Fatal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pct of collisions that are fatal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(lookup_helper!$D$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Community Type</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Region</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$D$90,lookup_helper!$F$90,lookup_helper!$G$90)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.5714285714285719E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7369826435246991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.022900763358779E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D52C-4E6F-9CD2-E93D7EFB0F67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1577134367"/>
+        <c:axId val="1541216127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1577134367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541216127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1541216127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577134367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Total Job Accessibility for EJ Populations Adjacent to Project</a:t>
             </a:r>
           </a:p>
@@ -2880,7 +3307,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3307,7 +3734,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3742,7 +4169,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4666,6 +5093,385 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Weekday</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Transit Trips on Project Segment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13134321457146172"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average weekday transit person trips</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>(lookup_helper!$D$3,lookup_helper!$E$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(lookup_helper!$D$64,lookup_helper!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.047842643653521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.301955921047991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CECD-4877-919E-CB650305B17F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1019814944"/>
+        <c:axId val="885554736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1019814944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="885554736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="885554736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1019814944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Free-flow vs. Congested</a:t>
             </a:r>
             <a:r>
@@ -5148,7 +5954,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5892,7 +6698,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6408,7 +7214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6674,6 +7480,7 @@
         <c:axId val="885554736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6778,7 +7585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7169,37 +7976,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7244,7 +8020,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7727,381 +8503,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Share</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Collisions that are Fatal</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$B$90</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pct of collisions that are fatal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(lookup_helper!$D$2,lookup_helper!$F$2,lookup_helper!$G$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Community Type</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Region</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(lookup_helper!$D$90,lookup_helper!$F$90,lookup_helper!$G$90)</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.5714285714285719E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7369826435246991E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.022900763358779E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D52C-4E6F-9CD2-E93D7EFB0F67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1577134367"/>
-        <c:axId val="1541216127"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1577134367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1541216127"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1541216127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1577134367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8263,6 +8664,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11137,6 +11578,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15209,15 +16153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15239,6 +16183,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF33AE87-B3B9-4E41-9D49-9E77164EFAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15367,13 +16349,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:colOff>328611</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
@@ -15408,15 +16390,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61911</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15445,14 +16427,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>642938</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16026,10 +17008,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -16066,7 +17048,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8">
         <v>1.41</v>
@@ -17200,9 +18182,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17227,24 +18207,24 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -17255,55 +18235,55 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="35" t="s">
+    <row r="38" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C38" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <f>VLOOKUP($A37,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="B36" s="40">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B39" s="40">
+        <f>VLOOKUP($A37,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="C36" s="40">
-        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C39" s="40">
+        <f>VLOOKUP($A37,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -17319,10 +18299,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17344,45 +18324,66 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>240</v>
-      </c>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>241</v>
-      </c>
+      <c r="A6" s="91"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <f>VLOOKUP("Project Pavement Condition Index (PCI)",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>60</v>
-      </c>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>242</v>
-      </c>
+      <c r="A9" s="91"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <f>VLOOKUP("Project AADT",lookup_helper!$B:$D,3,FALSE)</f>
-        <v>60000</v>
-      </c>
+      <c r="A10" s="92"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17420,25 +18421,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="A3" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17449,12 +18450,12 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>225</v>
@@ -17479,12 +18480,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -17523,19 +18524,19 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
       <c r="H86" s="58"/>
       <c r="I86" s="58"/>
     </row>
@@ -17561,7 +18562,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18282,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="54">
         <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
@@ -18328,7 +19329,7 @@
         <v>171</v>
       </c>
       <c r="P19" s="53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="57">
         <f>(Q18/5280)/D118</f>
@@ -19818,15 +20819,15 @@
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.1021114271418558</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>5.8844134774233253E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="5">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.480071598380431E-2</v>
       </c>
@@ -19853,15 +20854,15 @@
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.872619731652339</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="75">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="75">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.4149284958128156E-2</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="75">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.332683167880813E-2</v>
       </c>
@@ -19888,15 +20889,15 @@
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.33368336973414081</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>9.9496332560479198E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.1052465714535069</v>
       </c>
@@ -19949,7 +20950,7 @@
         <v>105</v>
       </c>
       <c r="B64" s="77" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C64" s="76" t="s">
         <v>216</v>
@@ -20759,19 +21760,19 @@
       <c r="C87" t="s">
         <v>205</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="75">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="75">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="75">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="75">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
@@ -20829,19 +21830,19 @@
       <c r="C89" t="s">
         <v>205</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="75">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.474480921569314</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="75">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="75">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.6732642555122741</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="75">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.2819088722919141</v>
       </c>
@@ -20934,19 +21935,19 @@
       <c r="C92" t="s">
         <v>205</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2.1232525270598122</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.28524510017006321</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.40140092908768138</v>
       </c>
@@ -21039,19 +22040,19 @@
       <c r="C95" t="s">
         <v>215</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.69863722615145762</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.34730153421679688</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0.3746385676273582</v>
       </c>
@@ -21069,7 +22070,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
         <v>215</v>
@@ -21099,7 +22100,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P96" s="28"/>
     </row>
@@ -21108,7 +22109,7 @@
         <v>72</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C97" t="s">
         <v>215</v>
@@ -21138,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P97" s="28"/>
     </row>
@@ -21147,7 +22148,7 @@
         <v>73</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
         <v>215</v>
@@ -21177,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P98" s="28"/>
     </row>
@@ -21186,7 +22187,7 @@
         <v>74</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
         <v>215</v>
@@ -21216,7 +22217,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P99" s="28"/>
     </row>
@@ -21225,7 +22226,7 @@
         <v>75</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
         <v>215</v>
@@ -21255,7 +22256,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P100" s="28"/>
     </row>
@@ -21264,7 +22265,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
         <v>215</v>
@@ -21294,7 +22295,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P101" s="28"/>
     </row>
@@ -21303,7 +22304,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
         <v>215</v>
@@ -21333,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P102" s="28"/>
     </row>
@@ -21342,7 +22343,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
         <v>215</v>
@@ -21372,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P103" s="28"/>
     </row>
@@ -21381,7 +22382,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
         <v>215</v>
@@ -21411,7 +22412,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P104" s="28"/>
     </row>
@@ -21420,7 +22421,7 @@
         <v>80</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
         <v>215</v>
@@ -21450,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P105" s="28"/>
     </row>
@@ -21459,7 +22460,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
         <v>215</v>
@@ -21489,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P106" s="28"/>
     </row>
@@ -21498,7 +22499,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
         <v>215</v>
@@ -21528,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P107" s="28"/>
     </row>
@@ -21537,7 +22538,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>215</v>
@@ -21567,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P108" s="28"/>
     </row>
@@ -21576,7 +22577,7 @@
         <v>84</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>215</v>
@@ -21606,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P109" s="28"/>
     </row>
@@ -21615,7 +22616,7 @@
         <v>85</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
         <v>215</v>
@@ -21645,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P110" s="28"/>
     </row>
@@ -21654,7 +22655,7 @@
         <v>86</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>215</v>
@@ -21684,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P111" s="28"/>
     </row>
@@ -21725,10 +22726,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
         <v>203</v>
@@ -21900,10 +22901,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>239</v>
       </c>
       <c r="C118" t="s">
         <v>203</v>
@@ -21982,9 +22983,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21995,40 +22994,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="str">
+      <c r="A2" s="95" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -22041,12 +23040,12 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="31" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
@@ -22054,7 +23053,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
@@ -22065,60 +23064,60 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="31" t="str">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="32">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="32">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="32">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="41">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
@@ -22129,12 +23128,12 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="31" t="str">
         <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -22190,7 +23189,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -22204,7 +23203,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <f ca="1">NOW()</f>
-        <v>43865.380504050925</v>
+        <v>43900.457546759259</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -22246,11 +23245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E9A7A-76C4-4F5E-A5E5-551C242D3604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4AC148-A6EC-4AC3-946F-AF230771E67E}">
   <dimension ref="A3:I42"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22263,21 +23262,54 @@
   <sheetData>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
@@ -22409,8 +23441,9 @@
       <c r="A42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22422,8 +23455,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22448,20 +23481,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="88"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>279</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22505,8 +23535,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22537,7 +23567,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -22566,7 +23596,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B22" s="68" t="str">
         <f>lookup_helper!Q7</f>
@@ -22579,7 +23609,7 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B23" s="72">
         <f>IFERROR(lookup_helper!Q9/lookup_helper!Q8,0)</f>
@@ -22619,17 +23649,17 @@
       <c r="G28" s="66"/>
       <c r="H28" s="66"/>
     </row>
-    <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
+    <row r="29" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
@@ -22693,24 +23723,24 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
+      <c r="A62" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -22732,15 +23762,15 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -22764,13 +23794,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
@@ -22783,8 +23813,8 @@
       <c r="C7" s="76"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
-        <v>289</v>
+      <c r="A22" s="87" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22803,8 +23833,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22824,7 +23854,7 @@
         <v>Project community type: Small-Town Established Communities</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -22833,28 +23863,28 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+    </row>
+    <row r="6" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -22878,9 +23908,9 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
-        <v>281</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -22893,7 +23923,7 @@
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -22902,25 +23932,22 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="42" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+    </row>
+    <row r="46" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
-        <v>281</v>
+      <c r="A63" s="90" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -22932,9 +23959,9 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A45:H45"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.94791666666666663" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -22945,9 +23972,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22981,20 +24006,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="A5" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+      <c r="A6" s="85">
         <f>VLOOKUP(lookup_helper!B56,lookup_helper!$B:$D,3,FALSE)</f>
         <v>1</v>
       </c>
@@ -23018,39 +24043,39 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
+    <row r="8" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="47"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
         <f>VLOOKUP("Percent of traffic that is trucks",lookup_helper!$B:$D,3,FALSE)</f>
         <v>7.8499999999999986E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-    </row>
-    <row r="13" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+    <row r="12" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+    </row>
+    <row r="13" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
